--- a/auto/new_data/5_經濟數據_malaysia.xlsx
+++ b/auto/new_data/5_經濟數據_malaysia.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/auto/new_data/5_經濟數據_malaysia.xlsx
+++ b/auto/new_data/5_經濟數據_malaysia.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>4.38</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nov/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1604</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>1621</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nov/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/22</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Mar/24</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Mar/24</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1538,12 +1538,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>16690</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>16660</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>16632</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>568</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>564</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>70.4</t>
+          <t>70.5</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -2916,12 +2916,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>1926651</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>2386002</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2256252</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2929,7 +2929,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/22</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Dec/2</t>
+          <t>Dec/23</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3542,12 +3542,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>4.1</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>5.3</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3576,12 +3576,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>-2.2</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-1.9</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3610,12 +3610,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>6.5</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>7.7</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sep/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Jan/2</t>
+          <t>Jan/24</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3780,12 +3780,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>1882</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>1903</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>1880</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3882,12 +3882,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>-2.2</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>-6.4</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>-5</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Mar/24</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -3984,12 +3984,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>5.26</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>5.3</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Oct/2</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Mar/24</t>
         </is>
       </c>
     </row>
@@ -4082,12 +4082,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>-1</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4116,12 +4116,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>5.9</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>6.4</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aug/2</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Jun/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -4252,12 +4252,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Mar/2</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_malaysia.xlsx
+++ b/auto/new_data/5_經濟數據_malaysia.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3417</t>
+          <t>3442</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3429</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1713,7 +1713,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2474,12 +2474,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>117600</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>119700</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>116800</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2980,12 +2980,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>441</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>462</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -2993,7 +2993,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Jul/24</t>
         </is>
       </c>
     </row>
@@ -4218,12 +4218,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>22.9</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>20.2</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>14.2</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_malaysia.xlsx
+++ b/auto/new_data/5_經濟數據_malaysia.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>20/Nov/24 13:23:58</t>
         </is>
       </c>
     </row>
@@ -552,12 +552,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>2.9</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -569,7 +569,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13189</t>
+          <t>11978</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5514</t>
+          <t>12767</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -756,12 +756,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3004</t>
+          <t>2176</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16195</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>2.9</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1130,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>400695</t>
+          <t>419168</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>397507</t>
+          <t>400736</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>409</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>394</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Mar/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>89336</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>89027</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>84853</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>25181</t>
+          <t>29134</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>23646</t>
+          <t>25222</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1368,12 +1368,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>17520</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>16143</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>15551</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1402,12 +1402,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>97432</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>93369</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>91727</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>22253</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>23808</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>26172</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1470,12 +1470,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>247547</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>237551</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>235953</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2644,12 +2644,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>13189</t>
+          <t>11978</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5514</t>
+          <t>12767</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2678,12 +2678,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3004</t>
+          <t>2176</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>16195</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>124015</t>
+          <t>128120</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>129004</t>
+          <t>123557</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2780,12 +2780,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>110826</t>
+          <t>116142</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>123490</t>
+          <t>110790</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2814,12 +2814,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>1262300</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>1328200</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>1271700</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3010,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>-0.6</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>10.9</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>26.2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3078,12 +3078,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>-7471</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>17167</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>-18734</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3112,12 +3112,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>14515</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>9084</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>5454</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3248,12 +3248,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>10777</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>-10338</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>-7685</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3282,12 +3282,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>52347</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>48452</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>48685</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3316,12 +3316,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>87120</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>69105</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>69976</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3350,12 +3350,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>76344</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>79443</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>77661</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3644,12 +3644,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>6439</t>
+          <t>1378</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>6479</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3678,12 +3678,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>71196</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>55383</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>73966</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3950,12 +3950,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>258519</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>243029</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>245840</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_malaysia.xlsx
+++ b/auto/new_data/5_經濟數據_malaysia.xlsx
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>1599</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>1598</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1602</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20/Nov/24 13:23:58</t>
+          <t>21/Nov/24 14:23:36</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/5_經濟數據_malaysia.xlsx
+++ b/auto/new_data/5_經濟數據_malaysia.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -501,7 +501,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21/Nov/24 14:23:36</t>
+          <t>26/Dec/24 10:02:23</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11978</t>
+          <t>15288</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12767</t>
+          <t>11869</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -892,12 +892,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>86.2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1538,12 +1538,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>16720</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>16690</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>16660</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>555</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>568</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>70.4</t>
+          <t>70.5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>3451</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>3442</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>3414</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1713,7 +1713,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1964,12 +1964,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>116</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -1998,12 +1998,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>127</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>130</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2032,12 +2032,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2168,12 +2168,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>149</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>150</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2202,12 +2202,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>-2.4</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2304,12 +2304,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>152603</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>151266</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>151896</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2338,12 +2338,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>645162</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>644918</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>637547</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>2428088</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>2408239</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2405109</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2406,12 +2406,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>2438253</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>2417132</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2414068</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2440,12 +2440,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3625432</t>
+          <t>3616556</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3628370</t>
+          <t>3625454</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2474,12 +2474,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>118300</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>117600</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>119700</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2508,12 +2508,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2391554</t>
+          <t>2402402</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2379844</t>
+          <t>2390718</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2610,12 +2610,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>587938</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>601340</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>641564</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2644,12 +2644,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>11978</t>
+          <t>15288</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>12767</t>
+          <t>11869</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>128120</t>
+          <t>126567</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>123557</t>
+          <t>128139</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2780,12 +2780,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>111279</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>116142</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>110790</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -2848,12 +2848,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>118</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>116</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2916,12 +2916,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>2230457</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>1926651</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2386002</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2929,7 +2929,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -2980,12 +2980,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>408</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>443</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -2993,7 +2993,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Jul/24</t>
+          <t>Aug/24</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3010,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>1.6</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>-0.6</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>2.6</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>10.9</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Nov/24</t>
+          <t>Dec/24</t>
         </is>
       </c>
     </row>
@@ -3508,12 +3508,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>86.2</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>94.3</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
@@ -3542,12 +3542,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>2.3</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>4.1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3576,12 +3576,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-0.7</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3610,12 +3610,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>3.2</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>6.5</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3678,12 +3678,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>60927</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>71196</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>55383</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3712,12 +3712,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>129678</t>
+          <t>128956</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>130831</t>
+          <t>138076</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Jan/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3746,12 +3746,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>-2.5</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3780,12 +3780,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>1882</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>1903</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>126</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aug/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -3882,12 +3882,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>-2.8</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>-2.2</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>-6.4</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -3984,12 +3984,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>5.23</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>5.26</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4018,12 +4018,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>0.47</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>0.5</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -4031,7 +4031,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Oct/24</t>
+          <t>Nov/24</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>69.1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Mar/24</t>
+          <t>Jun/24</t>
         </is>
       </c>
     </row>
@@ -4082,12 +4082,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4116,12 +4116,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>5.5</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>5.9</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Sep/24</t>
+          <t>Oct/24</t>
         </is>
       </c>
     </row>
@@ -4252,12 +4252,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Jun/24</t>
+          <t>Sep/24</t>
         </is>
       </c>
     </row>
